--- a/data/strategies/东方场外策略结果.xlsx
+++ b/data/strategies/东方场外策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="197">
+  <si>
+    <t>华夏国证半导体芯片ETF联接A</t>
+  </si>
   <si>
     <t>易方达中证红利ETF联接A</t>
   </si>
   <si>
+    <t>天弘中证光伏产业A</t>
+  </si>
+  <si>
+    <t>富国中证军工指数</t>
+  </si>
+  <si>
     <t>富国中证新能源汽车</t>
   </si>
   <si>
-    <t>富国中证军工指数</t>
-  </si>
-  <si>
-    <t>天弘中证光伏产业A</t>
-  </si>
-  <si>
-    <t>华夏国证半导体芯片ETF联接A</t>
-  </si>
-  <si>
     <t>”业绩改善“+”政策确定“</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>10.90%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>25.85%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>12.20%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>22.32%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>19.16%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>24.42%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>13.61%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>24.86%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>18.41%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>25.37%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>20.73%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>24.68%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -140,109 +137,109 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>008887.OF</t>
+  </si>
+  <si>
     <t>009051.OF</t>
   </si>
   <si>
+    <t>011102.OF</t>
+  </si>
+  <si>
+    <t>161024.OF</t>
+  </si>
+  <si>
     <t>161028.OF</t>
   </si>
   <si>
-    <t>161024.OF</t>
-  </si>
-  <si>
-    <t>011102.OF</t>
-  </si>
-  <si>
-    <t>008887.OF</t>
-  </si>
-  <si>
-    <t>2.16%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>4.69%</t>
-  </si>
-  <si>
-    <t>15.83%</t>
-  </si>
-  <si>
-    <t>16.66%</t>
-  </si>
-  <si>
-    <t>11.44%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>12.01%</t>
-  </si>
-  <si>
-    <t>29.61%</t>
-  </si>
-  <si>
-    <t>36.63%</t>
-  </si>
-  <si>
-    <t>14.91%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>-9.03%</t>
-  </si>
-  <si>
-    <t>13.84%</t>
-  </si>
-  <si>
-    <t>21.95%</t>
-  </si>
-  <si>
-    <t>9.45%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>25.29%</t>
-  </si>
-  <si>
-    <t>34.71%</t>
-  </si>
-  <si>
-    <t>36.29%</t>
-  </si>
-  <si>
-    <t>9.98%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>24.35%</t>
-  </si>
-  <si>
-    <t>28.49%</t>
-  </si>
-  <si>
-    <t>30.64%</t>
-  </si>
-  <si>
-    <t>13.17%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
-  </si>
-  <si>
-    <t>32.25%</t>
-  </si>
-  <si>
-    <t>36.05%</t>
-  </si>
-  <si>
-    <t>33.26%</t>
+    <t>19.52%</t>
+  </si>
+  <si>
+    <t>-0.25%</t>
+  </si>
+  <si>
+    <t>23.45%</t>
+  </si>
+  <si>
+    <t>-0.00%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>31.33%</t>
+  </si>
+  <si>
+    <t>6.03%</t>
+  </si>
+  <si>
+    <t>29.49%</t>
+  </si>
+  <si>
+    <t>7.53%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>31.01%</t>
+  </si>
+  <si>
+    <t>12.89%</t>
+  </si>
+  <si>
+    <t>20.84%</t>
+  </si>
+  <si>
+    <t>-9.91%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>42.92%</t>
+  </si>
+  <si>
+    <t>11.27%</t>
+  </si>
+  <si>
+    <t>37.26%</t>
+  </si>
+  <si>
+    <t>32.58%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>10.34%</t>
+  </si>
+  <si>
+    <t>30.09%</t>
+  </si>
+  <si>
+    <t>26.82%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>34.08%</t>
+  </si>
+  <si>
+    <t>13.10%</t>
+  </si>
+  <si>
+    <t>36.31%</t>
+  </si>
+  <si>
+    <t>32.80%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -257,352 +254,361 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>300274.SZ</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>300450.SZ</t>
+  </si>
+  <si>
+    <t>600438.SH</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
   </si>
   <si>
     <t>603501.SH</t>
   </si>
   <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>300450.SZ</t>
-  </si>
-  <si>
-    <t>300274.SZ</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>600438.SH</t>
-  </si>
-  <si>
-    <t>300782.SZ</t>
+    <t>603986.SH</t>
   </si>
   <si>
     <t>600893.SH</t>
   </si>
   <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
     <t>600703.SH</t>
   </si>
   <si>
+    <t>300316.SZ</t>
+  </si>
+  <si>
     <t>002049.SZ</t>
   </si>
   <si>
-    <t>300316.SZ</t>
-  </si>
-  <si>
     <t>002179.SZ</t>
   </si>
   <si>
-    <t>000768.SZ</t>
-  </si>
-  <si>
-    <t>601989.SH</t>
+    <t>002371.SZ</t>
+  </si>
+  <si>
+    <t>600745.SH</t>
   </si>
   <si>
     <t>002460.SZ</t>
   </si>
   <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600885.SH</t>
+  </si>
+  <si>
     <t>600089.SH</t>
   </si>
   <si>
-    <t>600745.SH</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600885.SH</t>
-  </si>
-  <si>
-    <t>2.67%</t>
-  </si>
-  <si>
-    <t>2.47%</t>
-  </si>
-  <si>
-    <t>2.41%</t>
-  </si>
-  <si>
-    <t>2.36%</t>
-  </si>
-  <si>
-    <t>2.26%</t>
-  </si>
-  <si>
-    <t>2.24%</t>
-  </si>
-  <si>
-    <t>1.76%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
-  </si>
-  <si>
-    <t>1.55%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>1.11%</t>
+    <t>002050.SZ</t>
+  </si>
+  <si>
+    <t>326.76%</t>
+  </si>
+  <si>
+    <t>229.00%</t>
+  </si>
+  <si>
+    <t>218.56%</t>
+  </si>
+  <si>
+    <t>217.60%</t>
+  </si>
+  <si>
+    <t>203.78%</t>
+  </si>
+  <si>
+    <t>193.35%</t>
+  </si>
+  <si>
+    <t>188.96%</t>
+  </si>
+  <si>
+    <t>176.09%</t>
+  </si>
+  <si>
+    <t>149.48%</t>
+  </si>
+  <si>
+    <t>138.34%</t>
+  </si>
+  <si>
+    <t>124.29%</t>
+  </si>
+  <si>
+    <t>121.80%</t>
+  </si>
+  <si>
+    <t>114.56%</t>
+  </si>
+  <si>
+    <t>114.53%</t>
+  </si>
+  <si>
+    <t>112.47%</t>
+  </si>
+  <si>
+    <t>107.54%</t>
+  </si>
+  <si>
+    <t>102.92%</t>
+  </si>
+  <si>
+    <t>101.90%</t>
+  </si>
+  <si>
+    <t>101.78%</t>
+  </si>
+  <si>
+    <t>101.16%</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>晶盛机电</t>
+  </si>
+  <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>北方华创</t>
+  </si>
+  <si>
+    <t>闻泰科技</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>特变电工</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>电站系统集成(不含自制产品)</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>锂电池设备</t>
+  </si>
+  <si>
+    <t>配合饲料</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>晶体硅生长设备</t>
+  </si>
+  <si>
+    <t>集成电路</t>
+  </si>
+  <si>
+    <t>电连接器</t>
+  </si>
+  <si>
+    <t>电子工艺装备</t>
+  </si>
+  <si>
+    <t>手机及配件</t>
+  </si>
+  <si>
+    <t>锂系列产品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>新能源产品及集成工程</t>
+  </si>
+  <si>
+    <t>空调冰箱之元器件及部件</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>75.60%</t>
+  </si>
+  <si>
+    <t>27.29%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>93.45%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>36.65%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>12.72%</t>
+  </si>
+  <si>
+    <t>8.40%</t>
+  </si>
+  <si>
+    <t>4.52%</t>
+  </si>
+  <si>
+    <t>2.79%</t>
+  </si>
+  <si>
+    <t>1.46%</t>
+  </si>
+  <si>
+    <t>1.19%</t>
   </si>
   <si>
     <t>1.08%</t>
   </si>
   <si>
-    <t>1.06%</t>
-  </si>
-  <si>
-    <t>1.04%</t>
-  </si>
-  <si>
-    <t>1.03%</t>
-  </si>
-  <si>
-    <t>1.02%</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>紫光国微</t>
-  </si>
-  <si>
-    <t>晶盛机电</t>
-  </si>
-  <si>
-    <t>中航光电</t>
-  </si>
-  <si>
-    <t>中航西飞</t>
-  </si>
-  <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>特变电工</t>
-  </si>
-  <si>
-    <t>闻泰科技</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宏发股份</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>电站系统集成(不含自制产品)</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>配合饲料</t>
-  </si>
-  <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>航空发动机制造及衍生产品</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
-  </si>
-  <si>
-    <t>化合物半导体产品</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>晶体硅生长设备</t>
-  </si>
-  <si>
-    <t>电连接器</t>
-  </si>
-  <si>
-    <t>航空产品</t>
-  </si>
-  <si>
-    <t>海洋运输装备</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>新能源产品及集成工程</t>
-  </si>
-  <si>
-    <t>手机及配件</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>继电器产品</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>55.76%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>-21.93%</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>29.00%</t>
-  </si>
-  <si>
-    <t>-4.98%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>13.98%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t>30.60%</t>
-  </si>
-  <si>
-    <t>21.51%</t>
-  </si>
-  <si>
-    <t>14.90%</t>
-  </si>
-  <si>
-    <t>13.05%</t>
-  </si>
-  <si>
-    <t>7.48%</t>
-  </si>
-  <si>
-    <t>6.47%</t>
-  </si>
-  <si>
-    <t>6.00%</t>
+    <t>1.07%</t>
   </si>
 </sst>
 </file>
@@ -966,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,22 +1041,22 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.026622902990518</v>
+      </c>
+      <c r="C3">
         <v>1.003688604154533</v>
       </c>
-      <c r="C3">
-        <v>1.067860508953817</v>
-      </c>
       <c r="D3">
-        <v>1.062350119904077</v>
+        <v>1.054286865447435</v>
       </c>
       <c r="E3">
-        <v>1.054286865447435</v>
+        <v>1.062381554011371</v>
       </c>
       <c r="F3">
-        <v>1.026622902990518</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="G3">
-        <v>1.042961800290076</v>
+        <v>1.042958450549182</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1064,22 +1070,22 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.075857038657914</v>
+      </c>
+      <c r="C4">
         <v>1.005629974762182</v>
       </c>
-      <c r="C4">
-        <v>1.074458058435438</v>
-      </c>
       <c r="D4">
-        <v>1.071143085531575</v>
+        <v>1.055649694073586</v>
       </c>
       <c r="E4">
-        <v>1.055649694073586</v>
+        <v>1.071172878500737</v>
       </c>
       <c r="F4">
-        <v>1.075857038657914</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="G4">
-        <v>1.056547570292139</v>
+        <v>1.056547248224414</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1093,22 +1099,22 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.060630926331145</v>
+      </c>
+      <c r="C5">
         <v>1.006794797126771</v>
       </c>
-      <c r="C5">
-        <v>1.05937794533459</v>
-      </c>
       <c r="D5">
-        <v>1.087130295763389</v>
+        <v>1.054249203785171</v>
       </c>
       <c r="E5">
-        <v>1.054249203785171</v>
+        <v>1.087123604969467</v>
       </c>
       <c r="F5">
-        <v>1.060630926331145</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="G5">
-        <v>1.053636633668213</v>
+        <v>1.053628408921339</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1122,22 +1128,22 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.069383661560904</v>
+      </c>
+      <c r="C6">
         <v>1.000485342651912</v>
       </c>
-      <c r="C6">
-        <v>1.086710650329878</v>
-      </c>
       <c r="D6">
-        <v>1.112709832134293</v>
+        <v>1.096142342393262</v>
       </c>
       <c r="E6">
-        <v>1.096142342393262</v>
+        <v>1.112707938513371</v>
       </c>
       <c r="F6">
-        <v>1.069383661560904</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="G6">
-        <v>1.07308636581405</v>
+        <v>1.073077107935678</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1151,22 +1157,22 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.066648431801605</v>
+      </c>
+      <c r="C7">
         <v>1.002717918850708</v>
       </c>
-      <c r="C7">
-        <v>1.077285579641847</v>
-      </c>
       <c r="D7">
-        <v>1.084732214228617</v>
+        <v>1.072662407051975</v>
       </c>
       <c r="E7">
-        <v>1.072662407051975</v>
+        <v>1.084754685196884</v>
       </c>
       <c r="F7">
-        <v>1.066648431801605</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="G7">
-        <v>1.060809310314951</v>
+        <v>1.060810728266208</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1180,22 +1186,22 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="C8">
         <v>0.9920403805086391</v>
       </c>
-      <c r="C8">
-        <v>1.04052780395853</v>
-      </c>
       <c r="D8">
-        <v>1.051159072741807</v>
+        <v>1.028778210639819</v>
       </c>
       <c r="E8">
-        <v>1.028778210639819</v>
+        <v>1.051168667087808</v>
       </c>
       <c r="F8">
-        <v>1.083333333333333</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="G8">
-        <v>1.039167760236426</v>
+        <v>1.03916203510937</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1209,22 +1215,22 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.109318016046681</v>
+      </c>
+      <c r="C9">
         <v>1.000291205591147</v>
       </c>
-      <c r="C9">
-        <v>1.063147973609802</v>
-      </c>
       <c r="D9">
-        <v>1.091127098321343</v>
+        <v>1.065146709907584</v>
       </c>
       <c r="E9">
-        <v>1.065146709907584</v>
+        <v>1.091124447252053</v>
       </c>
       <c r="F9">
-        <v>1.109318016046681</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="G9">
-        <v>1.065806200695312</v>
+        <v>1.065798935374997</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1238,22 +1244,22 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.12946754194019</v>
+      </c>
+      <c r="C10">
         <v>0.9988351776354105</v>
       </c>
-      <c r="C10">
-        <v>1.032045240339303</v>
-      </c>
       <c r="D10">
-        <v>1.075939248601119</v>
+        <v>1.05656533971889</v>
       </c>
       <c r="E10">
-        <v>1.05656533971889</v>
+        <v>1.075963360707517</v>
       </c>
       <c r="F10">
-        <v>1.12946754194019</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="G10">
-        <v>1.058570509646982</v>
+        <v>1.058570438046269</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1267,22 +1273,22 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.1259117432531</v>
+      </c>
+      <c r="C11">
         <v>0.9960201902543195</v>
       </c>
-      <c r="C11">
-        <v>1.005655042412818</v>
-      </c>
       <c r="D11">
-        <v>1.018385291766587</v>
+        <v>1.028610393875685</v>
       </c>
       <c r="E11">
-        <v>1.028610393875685</v>
+        <v>1.018372288902927</v>
       </c>
       <c r="F11">
-        <v>1.1259117432531</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="G11">
-        <v>1.034916532312502</v>
+        <v>1.034907977346345</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1296,22 +1302,22 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.104850474106492</v>
+      </c>
+      <c r="C12">
         <v>1.001164822364589</v>
       </c>
-      <c r="C12">
-        <v>1.02827521206409</v>
-      </c>
       <c r="D12">
-        <v>1.01119104716227</v>
+        <v>1.0260168339186</v>
       </c>
       <c r="E12">
-        <v>1.0260168339186</v>
+        <v>1.011212886923563</v>
       </c>
       <c r="F12">
-        <v>1.104850474106492</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="G12">
-        <v>1.034299677923208</v>
+        <v>1.034299000371841</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1325,22 +1331,22 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.166940189642597</v>
+      </c>
+      <c r="C13">
         <v>1.008444962143273</v>
       </c>
-      <c r="C13">
-        <v>1.034872761545712</v>
-      </c>
       <c r="D13">
-        <v>1.031175059952038</v>
+        <v>1.045476823103116</v>
       </c>
       <c r="E13">
-        <v>1.045476823103116</v>
+        <v>1.031164455674879</v>
       </c>
       <c r="F13">
-        <v>1.166940189642597</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="G13">
-        <v>1.057381959277347</v>
+        <v>1.057378148819085</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1354,22 +1360,22 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.149343544857768</v>
+      </c>
+      <c r="C14">
         <v>1.013201320132013</v>
       </c>
-      <c r="C14">
-        <v>1.008482563619227</v>
-      </c>
       <c r="D14">
-        <v>1.009592326139089</v>
+        <v>1.01723215267869</v>
       </c>
       <c r="E14">
-        <v>1.01723215267869</v>
+        <v>1.009580964413561</v>
       </c>
       <c r="F14">
-        <v>1.149343544857768</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="G14">
-        <v>1.039570381485357</v>
+        <v>1.039565359165989</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1383,22 +1389,22 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.159099197665937</v>
+      </c>
+      <c r="C15">
         <v>1.012910114540866</v>
       </c>
-      <c r="C15">
-        <v>1.051837888784166</v>
-      </c>
       <c r="D15">
-        <v>1.028776978417266</v>
+        <v>1.051551637967054</v>
       </c>
       <c r="E15">
-        <v>1.051551637967054</v>
+        <v>1.028795535902295</v>
       </c>
       <c r="F15">
-        <v>1.159099197665937</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="G15">
-        <v>1.060835163475058</v>
+        <v>1.060831685420707</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1412,22 +1418,22 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.159828592268417</v>
+      </c>
+      <c r="C16">
         <v>1.017763541059988</v>
       </c>
-      <c r="C16">
-        <v>1.073515551366635</v>
-      </c>
       <c r="D16">
-        <v>1.037569944044764</v>
+        <v>1.096222028615883</v>
       </c>
       <c r="E16">
-        <v>1.096222028615883</v>
+        <v>1.037586860391661</v>
       </c>
       <c r="F16">
-        <v>1.159828592268417</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="G16">
-        <v>1.076979931471138</v>
+        <v>1.076980087016489</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1441,22 +1447,22 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.146517140773158</v>
+      </c>
+      <c r="C17">
         <v>1.009221510386333</v>
       </c>
-      <c r="C17">
-        <v>1.100848256361923</v>
-      </c>
       <c r="D17">
-        <v>1.039968025579536</v>
+        <v>1.1325318961628</v>
       </c>
       <c r="E17">
-        <v>1.1325318961628</v>
+        <v>1.039955780164245</v>
       </c>
       <c r="F17">
-        <v>1.146517140773158</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="G17">
-        <v>1.08581736585275</v>
+        <v>1.085809696479566</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1470,22 +1476,22 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.133205689277899</v>
+      </c>
+      <c r="C18">
         <v>0.9964084643758493</v>
       </c>
-      <c r="C18">
-        <v>1.098020735155514</v>
-      </c>
       <c r="D18">
-        <v>1.040767386091127</v>
+        <v>1.132837411620351</v>
       </c>
       <c r="E18">
-        <v>1.132837411620351</v>
+        <v>1.040798062750053</v>
       </c>
       <c r="F18">
-        <v>1.133205689277899</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="G18">
-        <v>1.080247937304148</v>
+        <v>1.080245647926646</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1499,22 +1505,22 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.109135667396061</v>
+      </c>
+      <c r="C19">
         <v>0.9914579693263444</v>
       </c>
-      <c r="C19">
-        <v>1.067860508953817</v>
-      </c>
       <c r="D19">
-        <v>0.9760191846522783</v>
+        <v>1.116352384129589</v>
       </c>
       <c r="E19">
-        <v>1.116352384129589</v>
+        <v>0.9760475889660982</v>
       </c>
       <c r="F19">
-        <v>1.109135667396061</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="G19">
-        <v>1.052165142891618</v>
+        <v>1.052161187192029</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1528,22 +1534,22 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.103574033552152</v>
+      </c>
+      <c r="C20">
         <v>0.9923315860997864</v>
       </c>
-      <c r="C20">
-        <v>1.073515551366635</v>
-      </c>
       <c r="D20">
-        <v>0.9736211031175059</v>
+        <v>1.160845669263501</v>
       </c>
       <c r="E20">
-        <v>1.160845669263501</v>
+        <v>0.9736260265319014</v>
       </c>
       <c r="F20">
-        <v>1.103574033552152</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="G20">
-        <v>1.060777588679916</v>
+        <v>1.060775345638767</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1557,22 +1563,22 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.059172137126185</v>
+      </c>
+      <c r="C21">
         <v>0.9786449233158609</v>
       </c>
-      <c r="C21">
-        <v>1.033930254476909</v>
-      </c>
       <c r="D21">
-        <v>0.9608313349320544</v>
+        <v>1.101433242986627</v>
       </c>
       <c r="E21">
-        <v>1.101433242986627</v>
+        <v>0.9608338597599495</v>
       </c>
       <c r="F21">
-        <v>1.059172137126185</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="G21">
-        <v>1.026802378567527</v>
+        <v>1.026791883636056</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1586,22 +1592,22 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.039296134208607</v>
+      </c>
+      <c r="C22">
         <v>0.9718501261890896</v>
       </c>
-      <c r="C22">
-        <v>1.015080113100848</v>
-      </c>
       <c r="D22">
-        <v>0.932853717026379</v>
+        <v>1.078692635912157</v>
       </c>
       <c r="E22">
-        <v>1.078692635912157</v>
+        <v>0.9328806064434618</v>
       </c>
       <c r="F22">
-        <v>1.039296134208607</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="G22">
-        <v>1.007554545287416</v>
+        <v>1.007548165865616</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1615,22 +1621,22 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.044766593727206</v>
+      </c>
+      <c r="C23">
         <v>0.981654047757717</v>
       </c>
-      <c r="C23">
-        <v>1.016022620169651</v>
-      </c>
       <c r="D23">
-        <v>0.9280575539568345</v>
+        <v>1.049587545687988</v>
       </c>
       <c r="E23">
-        <v>1.049587545687988</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="F23">
-        <v>1.044766593727206</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="G23">
-        <v>1.004017672259879</v>
+        <v>1.00401121077253</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1644,22 +1650,22 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.053336980306346</v>
+      </c>
+      <c r="C24">
         <v>0.989225393127548</v>
       </c>
-      <c r="C24">
-        <v>1.057492931196984</v>
-      </c>
       <c r="D24">
-        <v>0.9424460431654677</v>
+        <v>1.068398026010979</v>
       </c>
       <c r="E24">
-        <v>1.068398026010979</v>
+        <v>0.9424615708570225</v>
       </c>
       <c r="F24">
-        <v>1.053336980306346</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="G24">
-        <v>1.022179874761465</v>
+        <v>1.022182199586744</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1673,22 +1679,22 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.016502552881109</v>
+      </c>
+      <c r="C25">
         <v>0.9815569792273345</v>
       </c>
-      <c r="C25">
-        <v>1.054665409990575</v>
-      </c>
       <c r="D25">
-        <v>0.9136690647482015</v>
+        <v>1.065269039940615</v>
       </c>
       <c r="E25">
-        <v>1.065269039940615</v>
+        <v>0.9136660349547273</v>
       </c>
       <c r="F25">
-        <v>1.016502552881109</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="G25">
-        <v>1.006332609357567</v>
+        <v>1.006328018266678</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1702,22 +1708,22 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.015134938001459</v>
+      </c>
+      <c r="C26">
         <v>0.971558920597942</v>
       </c>
-      <c r="C26">
-        <v>1.0311027332705</v>
-      </c>
       <c r="D26">
-        <v>0.9024780175859313</v>
+        <v>1.060847876045505</v>
       </c>
       <c r="E26">
-        <v>1.060847876045505</v>
+        <v>0.9025057906927774</v>
       </c>
       <c r="F26">
-        <v>1.015134938001459</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="G26">
-        <v>0.9962244971002674</v>
+        <v>0.9962282106371725</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1731,22 +1737,22 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>0.9910649161196207</v>
+      </c>
+      <c r="C27">
         <v>0.9736944282663561</v>
       </c>
-      <c r="C27">
-        <v>1.002827521206409</v>
-      </c>
       <c r="D27">
-        <v>0.8856914468425261</v>
+        <v>1.05917508462052</v>
       </c>
       <c r="E27">
-        <v>1.05917508462052</v>
+        <v>0.8857127816382397</v>
       </c>
       <c r="F27">
-        <v>0.9910649161196207</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="G27">
-        <v>0.9824906794110864</v>
+        <v>0.9824857875576424</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1760,22 +1766,22 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.017961342086069</v>
+      </c>
+      <c r="C28">
         <v>0.9834012813046009</v>
       </c>
-      <c r="C28">
-        <v>1.019792648444863</v>
-      </c>
       <c r="D28">
-        <v>0.8880895283772982</v>
+        <v>1.060683099236172</v>
       </c>
       <c r="E28">
-        <v>1.060683099236172</v>
+        <v>0.8880817014108234</v>
       </c>
       <c r="F28">
-        <v>1.017961342086069</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="G28">
-        <v>0.9939855798898007</v>
+        <v>0.9939817189671423</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1789,22 +1795,22 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.031637490882567</v>
+      </c>
+      <c r="C29">
         <v>0.9953407105416425</v>
       </c>
-      <c r="C29">
-        <v>1.04995287464656</v>
-      </c>
       <c r="D29">
-        <v>0.935251798561151</v>
+        <v>1.097629640279896</v>
       </c>
       <c r="E29">
-        <v>1.097629640279896</v>
+        <v>0.9352495262160455</v>
       </c>
       <c r="F29">
-        <v>1.031637490882567</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="G29">
-        <v>1.021962502982364</v>
+        <v>1.021960964837044</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1818,22 +1824,22 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.039296134208607</v>
+      </c>
+      <c r="C30">
         <v>1.003009124441856</v>
       </c>
-      <c r="C30">
-        <v>1.062205466540999</v>
-      </c>
       <c r="D30">
-        <v>0.9312549960031975</v>
+        <v>1.124629843281323</v>
       </c>
       <c r="E30">
-        <v>1.124629843281323</v>
+        <v>0.9312486839334596</v>
       </c>
       <c r="F30">
-        <v>1.039296134208607</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="G30">
-        <v>1.032079112895196</v>
+        <v>1.032074168312321</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1847,22 +1853,22 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.062727935813275</v>
+      </c>
+      <c r="C31">
         <v>1.025626092020967</v>
       </c>
-      <c r="C31">
-        <v>1.039585296889727</v>
-      </c>
       <c r="D31">
-        <v>0.9256594724220623</v>
+        <v>1.115415402505215</v>
       </c>
       <c r="E31">
-        <v>1.115415402505215</v>
+        <v>0.9256685618024847</v>
       </c>
       <c r="F31">
-        <v>1.062727935813275</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="G31">
-        <v>1.033802839930249</v>
+        <v>1.033800066747607</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1876,22 +1882,22 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.057895696571846</v>
+      </c>
+      <c r="C32">
         <v>1.040283440108717</v>
       </c>
-      <c r="C32">
-        <v>1.024505183788878</v>
-      </c>
       <c r="D32">
-        <v>0.9280575539568345</v>
+        <v>1.094467242854446</v>
       </c>
       <c r="E32">
-        <v>1.094467242854446</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="F32">
-        <v>1.057895696571846</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="G32">
-        <v>1.029041823456144</v>
+        <v>1.029032611994532</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1905,22 +1911,22 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.032184536834428</v>
+      </c>
+      <c r="C33">
         <v>1.049019607843137</v>
       </c>
-      <c r="C33">
-        <v>1.007540056550424</v>
-      </c>
       <c r="D33">
-        <v>0.8992805755395684</v>
+        <v>1.059313993666311</v>
       </c>
       <c r="E33">
-        <v>1.059313993666311</v>
+        <v>0.8992945883343861</v>
       </c>
       <c r="F33">
-        <v>1.032184536834428</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="G33">
-        <v>1.009467754086774</v>
+        <v>1.009458496377255</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1934,22 +1940,22 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.021243617797228</v>
+      </c>
+      <c r="C34">
         <v>1.040865851291011</v>
       </c>
-      <c r="C34">
-        <v>0.9896324222431668</v>
-      </c>
       <c r="D34">
-        <v>0.9224620303756994</v>
+        <v>1.049910597181106</v>
       </c>
       <c r="E34">
-        <v>1.049910597181106</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="F34">
-        <v>1.021243617797228</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="G34">
-        <v>1.004822903777642</v>
+        <v>1.004818462208893</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1963,22 +1969,22 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.028902261123268</v>
+      </c>
+      <c r="C35">
         <v>1.0293146961755</v>
       </c>
-      <c r="C35">
-        <v>0.9547596606974551</v>
-      </c>
       <c r="D35">
-        <v>0.9224620303756994</v>
+        <v>1.015566538924763</v>
       </c>
       <c r="E35">
-        <v>1.015566538924763</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="F35">
-        <v>1.028902261123268</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="G35">
-        <v>0.9902010374593372</v>
+        <v>0.9901982854934187</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -1992,22 +1998,22 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.020696571845368</v>
+      </c>
+      <c r="C36">
         <v>1.042321879246748</v>
       </c>
-      <c r="C36">
-        <v>0.9377945334590009</v>
-      </c>
       <c r="D36">
-        <v>0.9392486011191048</v>
+        <v>1.01096638361685</v>
       </c>
       <c r="E36">
-        <v>1.01096638361685</v>
+        <v>0.9392503684986313</v>
       </c>
       <c r="F36">
-        <v>1.020696571845368</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="G36">
-        <v>0.9902055938574145</v>
+        <v>0.9901972662704991</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2021,22 +2027,22 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.00656455142232</v>
+      </c>
+      <c r="C37">
         <v>1.022131624927199</v>
       </c>
-      <c r="C37">
-        <v>0.9180018850141376</v>
-      </c>
       <c r="D37">
-        <v>0.9096722621902478</v>
+        <v>1.004382151141824</v>
       </c>
       <c r="E37">
-        <v>1.004382151141824</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="F37">
-        <v>1.00656455142232</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="G37">
-        <v>0.9721504949391456</v>
+        <v>0.972142695502067</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2050,22 +2056,22 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="C38">
         <v>1.042224810716366</v>
       </c>
-      <c r="C38">
-        <v>0.9538171536286523</v>
-      </c>
       <c r="D38">
-        <v>0.9248601119104717</v>
+        <v>1.030001004310994</v>
       </c>
       <c r="E38">
-        <v>1.030001004310994</v>
+        <v>0.9248789218782901</v>
       </c>
       <c r="F38">
-        <v>1.041666666666667</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="G38">
-        <v>0.9985139494466301</v>
+        <v>0.9985065833663765</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2079,22 +2085,22 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.052060539752006</v>
+      </c>
+      <c r="C39">
         <v>1.033197437390798</v>
       </c>
-      <c r="C39">
-        <v>0.9575871819038644</v>
-      </c>
       <c r="D39">
-        <v>0.9304556354916067</v>
+        <v>1.020928709569586</v>
       </c>
       <c r="E39">
-        <v>1.020928709569586</v>
+        <v>0.9304590440092652</v>
       </c>
       <c r="F39">
-        <v>1.052060539752006</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="G39">
-        <v>0.9988459008215722</v>
+        <v>0.9988356059329198</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2108,22 +2114,22 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.053154631655726</v>
+      </c>
+      <c r="C40">
         <v>1.055620267909144</v>
       </c>
-      <c r="C40">
-        <v>0.9651272384542884</v>
-      </c>
       <c r="D40">
-        <v>0.9288569144684253</v>
+        <v>1.015002036206762</v>
       </c>
       <c r="E40">
-        <v>1.015002036206762</v>
+        <v>0.9288797641608759</v>
       </c>
       <c r="F40">
-        <v>1.053154631655726</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="G40">
-        <v>1.003552217738869</v>
+        <v>1.003546114048441</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2137,22 +2143,22 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>1.017687819110139</v>
+      </c>
+      <c r="C41">
         <v>1.047369442826636</v>
       </c>
-      <c r="C41">
-        <v>0.9180018850141376</v>
-      </c>
       <c r="D41">
-        <v>0.9176658673061551</v>
+        <v>0.951174497796652</v>
       </c>
       <c r="E41">
-        <v>0.951174497796652</v>
+        <v>0.9176668772373132</v>
       </c>
       <c r="F41">
-        <v>1.017687819110139</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="G41">
-        <v>0.9703799024107438</v>
+        <v>0.9703737188635181</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2166,22 +2172,22 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>1.009664478482859</v>
+      </c>
+      <c r="C42">
         <v>1.041545331003689</v>
       </c>
-      <c r="C42">
-        <v>0.9245994344957587</v>
-      </c>
       <c r="D42">
-        <v>0.9000799360511591</v>
+        <v>0.9540098186036451</v>
       </c>
       <c r="E42">
-        <v>0.9540098186036451</v>
+        <v>0.9000842282585808</v>
       </c>
       <c r="F42">
-        <v>1.009664478482859</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="G42">
-        <v>0.9659797997274222</v>
+        <v>0.9659776285362442</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2195,22 +2201,22 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9674507658643325</v>
+      </c>
+      <c r="C43">
         <v>1.032032615026208</v>
       </c>
-      <c r="C43">
-        <v>0.8812441093308201</v>
-      </c>
       <c r="D43">
-        <v>0.8441247002398082</v>
+        <v>0.9020909090602025</v>
       </c>
       <c r="E43">
-        <v>0.9020909090602025</v>
+        <v>0.8441250789639924</v>
       </c>
       <c r="F43">
-        <v>0.9674507658643325</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="G43">
-        <v>0.9253886199042745</v>
+        <v>0.9253777423617937</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2224,22 +2230,22 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.9205871626549964</v>
+      </c>
+      <c r="C44">
         <v>1.023393515822171</v>
       </c>
-      <c r="C44">
-        <v>0.8671065032987748</v>
-      </c>
       <c r="D44">
-        <v>0.8025579536370904</v>
+        <v>0.8718393055121925</v>
       </c>
       <c r="E44">
-        <v>0.8718393055121925</v>
+        <v>0.8025373762897452</v>
       </c>
       <c r="F44">
-        <v>0.9205871626549964</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="G44">
-        <v>0.897096888185045</v>
+        <v>0.8970905237959459</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2253,22 +2259,22 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9214989059080962</v>
+      </c>
+      <c r="C45">
         <v>1.018540089303048</v>
       </c>
-      <c r="C45">
-        <v>0.8821866163996231</v>
-      </c>
       <c r="D45">
-        <v>0.7977617905675459</v>
+        <v>0.8783817104609686</v>
       </c>
       <c r="E45">
-        <v>0.8783817104609686</v>
+        <v>0.7977468940829648</v>
       </c>
       <c r="F45">
-        <v>0.9214989059080962</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="G45">
-        <v>0.8996738225278563</v>
+        <v>0.8996692002378426</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2282,22 +2288,22 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9493982494529539</v>
+      </c>
+      <c r="C46">
         <v>1.041059988351776</v>
       </c>
-      <c r="C46">
-        <v>0.9066918001885014</v>
-      </c>
       <c r="D46">
-        <v>0.8105515587529977</v>
+        <v>0.910932533157181</v>
       </c>
       <c r="E46">
-        <v>0.910932533157181</v>
+        <v>0.8105390608549169</v>
       </c>
       <c r="F46">
-        <v>0.9493982494529539</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="G46">
-        <v>0.9237268259806821</v>
+        <v>0.9237174864227091</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2311,22 +2317,22 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.9350838803792852</v>
+      </c>
+      <c r="C47">
         <v>1.049310813434285</v>
       </c>
-      <c r="C47">
-        <v>0.9132893496701224</v>
-      </c>
       <c r="D47">
-        <v>0.8049560351718624</v>
+        <v>0.9275902751170354</v>
       </c>
       <c r="E47">
-        <v>0.9275902751170354</v>
+        <v>0.8049589387239419</v>
       </c>
       <c r="F47">
-        <v>0.9350838803792852</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="G47">
-        <v>0.9260460707545181</v>
+        <v>0.9260431673873724</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2340,22 +2346,22 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.8967906637490883</v>
+      </c>
+      <c r="C48">
         <v>1.050863909920404</v>
       </c>
-      <c r="C48">
-        <v>0.889726672950047</v>
-      </c>
       <c r="D48">
-        <v>0.8001598721023181</v>
+        <v>0.8912915540710569</v>
       </c>
       <c r="E48">
-        <v>0.8912915540710569</v>
+        <v>0.8001684565171615</v>
       </c>
       <c r="F48">
-        <v>0.8967906637490883</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="G48">
-        <v>0.9057665345585828</v>
+        <v>0.9057669114117202</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2369,22 +2375,22 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.8914113785557987</v>
+      </c>
+      <c r="C49">
         <v>1.057173364395263</v>
       </c>
-      <c r="C49">
-        <v>0.8906691800188501</v>
-      </c>
       <c r="D49">
-        <v>0.7985611510791367</v>
+        <v>0.897361752707333</v>
       </c>
       <c r="E49">
-        <v>0.897361752707333</v>
+        <v>0.7985891766687724</v>
       </c>
       <c r="F49">
-        <v>0.8914113785557987</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="G49">
-        <v>0.9070353653512764</v>
+        <v>0.9070365775018432</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2398,22 +2404,22 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9170313639679066</v>
+      </c>
+      <c r="C50">
         <v>1.05270821199767</v>
       </c>
-      <c r="C50">
-        <v>0.9123468426013195</v>
-      </c>
       <c r="D50">
-        <v>0.8113509192645882</v>
+        <v>0.9007209027629924</v>
       </c>
       <c r="E50">
-        <v>0.9007209027629924</v>
+        <v>0.8113813434407243</v>
       </c>
       <c r="F50">
-        <v>0.9170313639679066</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="G50">
-        <v>0.9188316481188955</v>
+        <v>0.91883730181409</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2427,22 +2433,22 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9179431072210065</v>
+      </c>
+      <c r="C51">
         <v>1.056396816152203</v>
       </c>
-      <c r="C51">
-        <v>0.9132893496701224</v>
-      </c>
       <c r="D51">
-        <v>0.8201438848920863</v>
+        <v>0.9157457104830364</v>
       </c>
       <c r="E51">
-        <v>0.9157457104830364</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="F51">
-        <v>0.9179431072210065</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="G51">
-        <v>0.9247037736836912</v>
+        <v>0.9247060462137303</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2456,22 +2462,22 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9106491611962072</v>
+      </c>
+      <c r="C52">
         <v>1.046301688992429</v>
       </c>
-      <c r="C52">
-        <v>0.8850141376060321</v>
-      </c>
       <c r="D52">
-        <v>0.8249400479616308</v>
+        <v>0.89222859199089</v>
       </c>
       <c r="E52">
-        <v>0.89222859199089</v>
+        <v>0.8249631501368709</v>
       </c>
       <c r="F52">
-        <v>0.9106491611962072</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="G52">
-        <v>0.9118267255494379</v>
+        <v>0.9118205441788015</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2485,22 +2491,22 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9125638220277169</v>
+      </c>
+      <c r="C53">
         <v>1.060279557367501</v>
       </c>
-      <c r="C53">
-        <v>0.8963242224316682</v>
-      </c>
       <c r="D53">
-        <v>0.8313349320543566</v>
+        <v>0.9128444958409477</v>
       </c>
       <c r="E53">
-        <v>0.9128444958409477</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="F53">
-        <v>0.9125638220277169</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="G53">
-        <v>0.9226694059444382</v>
+        <v>0.92265865461119</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2514,22 +2520,22 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9124726477024069</v>
+      </c>
+      <c r="C54">
         <v>1.046495826053194</v>
       </c>
-      <c r="C54">
-        <v>0.8671065032987748</v>
-      </c>
       <c r="D54">
-        <v>0.8257394084732214</v>
+        <v>0.8981579393880301</v>
       </c>
       <c r="E54">
-        <v>0.8981579393880301</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="F54">
-        <v>0.9124726477024069</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="G54">
-        <v>0.9099944649831254</v>
+        <v>0.9099948923810641</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2543,22 +2549,22 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.8925966447848286</v>
+      </c>
+      <c r="C55">
         <v>1.031158998252766</v>
       </c>
-      <c r="C55">
-        <v>0.8435438265786994</v>
-      </c>
       <c r="D55">
-        <v>0.812150279776179</v>
+        <v>0.8783354355934346</v>
       </c>
       <c r="E55">
-        <v>0.8783354355934346</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="F55">
-        <v>0.8925966447848286</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="G55">
-        <v>0.8915570369971817</v>
+        <v>0.8915610728430298</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2572,22 +2578,22 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9000729394602479</v>
+      </c>
+      <c r="C56">
         <v>1.02814987381091</v>
       </c>
-      <c r="C56">
-        <v>0.8576814326107447</v>
-      </c>
       <c r="D56">
-        <v>0.815347721822542</v>
+        <v>0.8763398741526266</v>
       </c>
       <c r="E56">
-        <v>0.8763398741526266</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="F56">
-        <v>0.9000729394602479</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="G56">
-        <v>0.8955183683714144</v>
+        <v>0.8955059233796582</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2601,22 +2607,22 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.9171225382932167</v>
+      </c>
+      <c r="C57">
         <v>1.040671714230247</v>
       </c>
-      <c r="C57">
-        <v>0.8934967012252591</v>
-      </c>
       <c r="D57">
-        <v>0.8273381294964028</v>
+        <v>0.9085377806145685</v>
       </c>
       <c r="E57">
-        <v>0.9085377806145685</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="F57">
-        <v>0.9171225382932167</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="G57">
-        <v>0.9174333727719388</v>
+        <v>0.917430972306351</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2630,22 +2636,22 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9214077315827862</v>
+      </c>
+      <c r="C58">
         <v>1.051737526693846</v>
       </c>
-      <c r="C58">
-        <v>0.8821866163996231</v>
-      </c>
       <c r="D58">
-        <v>0.8409272581934453</v>
+        <v>0.9004560889225061</v>
       </c>
       <c r="E58">
-        <v>0.9004560889225061</v>
+        <v>0.8409138766056011</v>
       </c>
       <c r="F58">
-        <v>0.9214077315827862</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="G58">
-        <v>0.9193430443584414</v>
+        <v>0.9193387250477749</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2659,22 +2665,22 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9232312180889861</v>
+      </c>
+      <c r="C59">
         <v>1.050766841390021</v>
       </c>
-      <c r="C59">
-        <v>0.8925541941564561</v>
-      </c>
       <c r="D59">
-        <v>0.8577138289368506</v>
+        <v>0.9285429913222801</v>
       </c>
       <c r="E59">
-        <v>0.9285429913222801</v>
+        <v>0.857706885660139</v>
       </c>
       <c r="F59">
-        <v>0.9232312180889861</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="G59">
-        <v>0.9305618147789189</v>
+        <v>0.9305499272811584</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2688,22 +2694,22 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9211342086068562</v>
+      </c>
+      <c r="C60">
         <v>1.04834012813046</v>
       </c>
-      <c r="C60">
-        <v>0.8812441093308201</v>
-      </c>
       <c r="D60">
-        <v>0.8257394084732214</v>
+        <v>0.9224742563679453</v>
       </c>
       <c r="E60">
-        <v>0.9224742563679453</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="F60">
-        <v>0.9211342086068562</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="G60">
-        <v>0.9197864221818606</v>
+        <v>0.919778145212112</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2717,22 +2723,22 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9566921954777534</v>
+      </c>
+      <c r="C61">
         <v>1.055717336439526</v>
       </c>
-      <c r="C61">
-        <v>0.8982092365692743</v>
-      </c>
       <c r="D61">
-        <v>0.8313349320543566</v>
+        <v>0.9312822720757296</v>
       </c>
       <c r="E61">
-        <v>0.9312822720757296</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="F61">
-        <v>0.9566921954777534</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="G61">
-        <v>0.934647194523328</v>
+        <v>0.9346427005467709</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2746,22 +2752,22 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.0036469730124</v>
+      </c>
+      <c r="C62">
         <v>1.051446321102699</v>
       </c>
-      <c r="C62">
-        <v>0.9095193213949105</v>
-      </c>
       <c r="D62">
-        <v>0.8345323741007195</v>
+        <v>0.9289564814707436</v>
       </c>
       <c r="E62">
-        <v>0.9289564814707436</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="F62">
-        <v>1.0036469730124</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="G62">
-        <v>0.9456202942162945</v>
+        <v>0.9456190067470421</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2775,22 +2781,22 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.9978118161925602</v>
+      </c>
+      <c r="C63">
         <v>1.056396816152203</v>
       </c>
-      <c r="C63">
-        <v>0.9142318567389255</v>
-      </c>
       <c r="D63">
-        <v>0.8425259792166268</v>
+        <v>0.9500423679626594</v>
       </c>
       <c r="E63">
-        <v>0.9500423679626594</v>
+        <v>0.8425457991156033</v>
       </c>
       <c r="F63">
-        <v>0.9978118161925602</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="G63">
-        <v>0.9522017672525952</v>
+        <v>0.9521991942172999</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2804,22 +2810,22 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9975382932166302</v>
+      </c>
+      <c r="C64">
         <v>1.064744709765094</v>
       </c>
-      <c r="C64">
-        <v>0.9085768143261075</v>
-      </c>
       <c r="D64">
-        <v>0.8377298161470823</v>
+        <v>0.9331814838379677</v>
       </c>
       <c r="E64">
-        <v>0.9331814838379677</v>
+        <v>0.8377553169088229</v>
       </c>
       <c r="F64">
-        <v>0.9975382932166302</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="G64">
-        <v>0.9483542234585765</v>
+        <v>0.9483587409892587</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2833,22 +2839,22 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9950765864332604</v>
+      </c>
+      <c r="C65">
         <v>1.062803339157445</v>
       </c>
-      <c r="C65">
-        <v>0.9038642789820923</v>
-      </c>
       <c r="D65">
-        <v>0.8353317346123101</v>
+        <v>0.924964936373183</v>
       </c>
       <c r="E65">
-        <v>0.924964936373183</v>
+        <v>0.8353337544746262</v>
       </c>
       <c r="F65">
-        <v>0.9950765864332604</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="G65">
-        <v>0.9444081751116583</v>
+        <v>0.9443985346866027</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2862,22 +2868,22 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9869620714806711</v>
+      </c>
+      <c r="C66">
         <v>1.062803339157445</v>
       </c>
-      <c r="C66">
-        <v>0.8906691800188501</v>
-      </c>
       <c r="D66">
-        <v>0.8401278976818545</v>
+        <v>0.9092496929927127</v>
       </c>
       <c r="E66">
-        <v>0.9092496929927127</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="F66">
-        <v>0.9869620714806711</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="G66">
-        <v>0.9379624362663067</v>
+        <v>0.9379573110988569</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2891,22 +2897,22 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9705506929248724</v>
+      </c>
+      <c r="C67">
         <v>1.057367501456028</v>
       </c>
-      <c r="C67">
-        <v>0.8633364750235627</v>
-      </c>
       <c r="D67">
-        <v>0.8145483613109512</v>
+        <v>0.8843249628365525</v>
       </c>
       <c r="E67">
-        <v>0.8843249628365525</v>
+        <v>0.8145399031375026</v>
       </c>
       <c r="F67">
-        <v>0.9705506929248724</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="G67">
-        <v>0.9180255987103935</v>
+        <v>0.9180215066744405</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2920,22 +2926,22 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9644420131291029</v>
+      </c>
+      <c r="C68">
         <v>1.04911667637352</v>
       </c>
-      <c r="C68">
-        <v>0.8671065032987748</v>
-      </c>
       <c r="D68">
-        <v>0.812150279776179</v>
+        <v>0.8787236772284079</v>
       </c>
       <c r="E68">
-        <v>0.8787236772284079</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="F68">
-        <v>0.9644420131291029</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="G68">
-        <v>0.9143078299611969</v>
+        <v>0.9143097217593148</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2949,22 +2955,22 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9681801604668127</v>
+      </c>
+      <c r="C69">
         <v>1.056493884682586</v>
       </c>
-      <c r="C69">
-        <v>0.9038642789820923</v>
-      </c>
       <c r="D69">
-        <v>0.8233413269384493</v>
+        <v>0.891903035349833</v>
       </c>
       <c r="E69">
-        <v>0.891903035349833</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="F69">
-        <v>0.9681801604668127</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="G69">
-        <v>0.9287565372839547</v>
+        <v>0.9287444730241199</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2978,22 +2984,22 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9624361779722831</v>
+      </c>
+      <c r="C70">
         <v>1.057173364395263</v>
       </c>
-      <c r="C70">
-        <v>0.9038642789820923</v>
-      </c>
       <c r="D70">
-        <v>0.8217426059152678</v>
+        <v>0.8973868604821752</v>
       </c>
       <c r="E70">
-        <v>0.8973868604821752</v>
+        <v>0.8217519477784797</v>
       </c>
       <c r="F70">
-        <v>0.9624361779722831</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="G70">
-        <v>0.9285206575494163</v>
+        <v>0.92851248152454</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3007,22 +3013,22 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9574215900802334</v>
+      </c>
+      <c r="C71">
         <v>1.070083478936129</v>
       </c>
-      <c r="C71">
-        <v>0.9029217719132893</v>
-      </c>
       <c r="D71">
-        <v>0.8225419664268584</v>
+        <v>0.8934466568434843</v>
       </c>
       <c r="E71">
-        <v>0.8934466568434843</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="F71">
-        <v>0.9574215900802334</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="G71">
-        <v>0.9292830928399989</v>
+        <v>0.9292760256351723</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3036,22 +3042,22 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9801239970824216</v>
+      </c>
+      <c r="C72">
         <v>1.0768782760629</v>
       </c>
-      <c r="C72">
-        <v>0.9557021677662583</v>
-      </c>
       <c r="D72">
-        <v>0.8337330135891287</v>
+        <v>0.9234306599257733</v>
       </c>
       <c r="E72">
-        <v>0.9234306599257733</v>
+        <v>0.8337544746262372</v>
       </c>
       <c r="F72">
-        <v>0.9801239970824216</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="G72">
-        <v>0.9539736228852964</v>
+        <v>0.9539730443755919</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3065,22 +3071,22 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9700948212983225</v>
+      </c>
+      <c r="C73">
         <v>1.075907590759076</v>
       </c>
-      <c r="C73">
-        <v>0.9509896324222431</v>
-      </c>
       <c r="D73">
-        <v>0.8297362110311751</v>
+        <v>0.9349364666335124</v>
       </c>
       <c r="E73">
-        <v>0.9349364666335124</v>
+        <v>0.8297536323436513</v>
       </c>
       <c r="F73">
-        <v>0.9700948212983225</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="G73">
-        <v>0.9523329444288658</v>
+        <v>0.9523344594301306</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3094,22 +3100,22 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.9735594456601022</v>
+      </c>
+      <c r="C74">
         <v>1.075519316637546</v>
       </c>
-      <c r="C74">
-        <v>0.9509896324222431</v>
-      </c>
       <c r="D74">
-        <v>0.8225419664268584</v>
+        <v>0.933751897579194</v>
       </c>
       <c r="E74">
-        <v>0.933751897579194</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="F74">
-        <v>0.9735594456601022</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="G74">
-        <v>0.9512724517451888</v>
+        <v>0.9512704067391216</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3123,22 +3129,22 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.9834062727935813</v>
+      </c>
+      <c r="C75">
         <v>1.079402057852844</v>
       </c>
-      <c r="C75">
-        <v>0.9528746465598491</v>
-      </c>
       <c r="D75">
-        <v>0.8225419664268584</v>
+        <v>0.9361801740678118</v>
       </c>
       <c r="E75">
-        <v>0.9361801740678118</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="F75">
-        <v>0.9834062727935813</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="G75">
-        <v>0.954881023540189</v>
+        <v>0.9548728726590638</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3152,22 +3158,22 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>0.987235594456601</v>
+      </c>
+      <c r="C76">
         <v>1.076587070471753</v>
       </c>
-      <c r="C76">
-        <v>0.9641847313854853</v>
-      </c>
       <c r="D76">
-        <v>0.8201438848920863</v>
+        <v>0.9450422615642414</v>
       </c>
       <c r="E76">
-        <v>0.9450422615642414</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="F76">
-        <v>0.987235594456601</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="G76">
-        <v>0.9586387085540335</v>
+        <v>0.9586368444702453</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3181,22 +3187,22 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.9897884755652807</v>
+      </c>
+      <c r="C77">
         <v>1.069889341875364</v>
       </c>
-      <c r="C77">
-        <v>0.9547596606974551</v>
-      </c>
       <c r="D77">
-        <v>0.8193445243804955</v>
+        <v>0.9400441536546279</v>
       </c>
       <c r="E77">
-        <v>0.9400441536546279</v>
+        <v>0.819330385344283</v>
       </c>
       <c r="F77">
-        <v>0.9897884755652807</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="G77">
-        <v>0.9547652312346447</v>
+        <v>0.954760585647805</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3210,22 +3216,22 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.9785740335521517</v>
+      </c>
+      <c r="C78">
         <v>1.069501067753834</v>
       </c>
-      <c r="C78">
-        <v>0.945334590009425</v>
-      </c>
       <c r="D78">
-        <v>0.8089528377298162</v>
+        <v>0.937905123235827</v>
       </c>
       <c r="E78">
-        <v>0.937905123235827</v>
+        <v>0.8089597810065277</v>
       </c>
       <c r="F78">
-        <v>0.9785740335521517</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="G78">
-        <v>0.948053530456211</v>
+        <v>0.9480465410119986</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3239,22 +3245,22 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>0.9976294675419403</v>
+      </c>
+      <c r="C79">
         <v>1.075519316637546</v>
       </c>
-      <c r="C79">
-        <v>0.9679547596606973</v>
-      </c>
       <c r="D79">
-        <v>0.815347721822542</v>
+        <v>0.9534557023978826</v>
       </c>
       <c r="E79">
-        <v>0.9534557023978826</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="F79">
-        <v>0.9976294675419403</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="G79">
-        <v>0.9619813936121218</v>
+        <v>0.9619702886501971</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3268,22 +3274,22 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.00483223924143</v>
+      </c>
+      <c r="C80">
         <v>1.081343428460493</v>
       </c>
-      <c r="C80">
-        <v>0.9651272384542884</v>
-      </c>
       <c r="D80">
-        <v>0.815347721822542</v>
+        <v>0.9500112084259441</v>
       </c>
       <c r="E80">
-        <v>0.9500112084259441</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="F80">
-        <v>1.00483223924143</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="G80">
-        <v>0.9633323672809396</v>
+        <v>0.9633180578998527</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3297,22 +3303,22 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.009938001458789</v>
+      </c>
+      <c r="C81">
         <v>1.076781207532518</v>
       </c>
-      <c r="C81">
-        <v>0.9839773798303488</v>
-      </c>
       <c r="D81">
-        <v>0.7889688249400479</v>
+        <v>0.9729243892308588</v>
       </c>
       <c r="E81">
-        <v>0.9729243892308588</v>
+        <v>0.7889555695935986</v>
       </c>
       <c r="F81">
-        <v>1.009938001458789</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="G81">
-        <v>0.9665179605985126</v>
+        <v>0.9665053933084704</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3326,22 +3332,22 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.9967177242888402</v>
+      </c>
+      <c r="C82">
         <v>1.091438555620268</v>
       </c>
-      <c r="C82">
-        <v>0.9764373232799246</v>
-      </c>
       <c r="D82">
-        <v>0.7993605115907274</v>
+        <v>0.9686533653256675</v>
       </c>
       <c r="E82">
-        <v>0.9686533653256675</v>
+        <v>0.7993788165929669</v>
       </c>
       <c r="F82">
-        <v>0.9967177242888402</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="G82">
-        <v>0.9665214960210855</v>
+        <v>0.966514937837515</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3355,22 +3361,22 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.9526805251641137</v>
+      </c>
+      <c r="C83">
         <v>1.093574063288682</v>
       </c>
-      <c r="C83">
-        <v>0.9500471253534402</v>
-      </c>
       <c r="D83">
-        <v>0.7881694644284573</v>
+        <v>0.9428060651827108</v>
       </c>
       <c r="E83">
-        <v>0.9428060651827108</v>
+        <v>0.7881659296694041</v>
       </c>
       <c r="F83">
-        <v>0.9526805251641137</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="G83">
-        <v>0.9454554486834807</v>
+        <v>0.9454434621762198</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3384,22 +3390,22 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9333515681983954</v>
+      </c>
+      <c r="C84">
         <v>1.102407299553485</v>
       </c>
-      <c r="C84">
-        <v>0.9547596606974551</v>
-      </c>
       <c r="D84">
-        <v>0.7777777777777777</v>
+        <v>0.952361065339775</v>
       </c>
       <c r="E84">
-        <v>0.952361065339775</v>
+        <v>0.7777953253316489</v>
       </c>
       <c r="F84">
-        <v>0.9333515681983954</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="G84">
-        <v>0.9441314743133776</v>
+        <v>0.9441331660445546</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3413,22 +3419,22 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9413749088256747</v>
+      </c>
+      <c r="C85">
         <v>1.092797515045622</v>
       </c>
-      <c r="C85">
-        <v>0.9387370405278039</v>
-      </c>
       <c r="D85">
-        <v>0.7961630695443646</v>
+        <v>0.9436933097688046</v>
       </c>
       <c r="E85">
-        <v>0.9436933097688046</v>
+        <v>0.7961676142345757</v>
       </c>
       <c r="F85">
-        <v>0.9413749088256747</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="G85">
-        <v>0.942553168742454</v>
+        <v>0.9425547069118952</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3442,22 +3448,22 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9553245805981037</v>
+      </c>
+      <c r="C86">
         <v>1.10221316249272</v>
       </c>
-      <c r="C86">
-        <v>0.942507068803016</v>
-      </c>
       <c r="D86">
-        <v>0.7929656274980016</v>
+        <v>0.9495191579640454</v>
       </c>
       <c r="E86">
-        <v>0.9495191579640454</v>
+        <v>0.7929564118761845</v>
       </c>
       <c r="F86">
-        <v>0.9553245805981037</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="G86">
-        <v>0.9485059194711774</v>
+        <v>0.9484924938280974</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3471,22 +3477,22 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9482129832239242</v>
+      </c>
+      <c r="C87">
         <v>1.090662007377208</v>
       </c>
-      <c r="C87">
-        <v>0.9236569274269556</v>
-      </c>
       <c r="D87">
-        <v>0.7905675459632294</v>
+        <v>0.9310161634396796</v>
       </c>
       <c r="E87">
-        <v>0.9310161634396796</v>
+        <v>0.7905874921036008</v>
       </c>
       <c r="F87">
-        <v>0.9482129832239242</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="G87">
-        <v>0.9368231254861995</v>
+        <v>0.9368271380191404</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3500,22 +3506,22 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9706418672501823</v>
+      </c>
+      <c r="C88">
         <v>1.097650941564745</v>
       </c>
-      <c r="C88">
-        <v>0.9519321394910462</v>
-      </c>
       <c r="D88">
-        <v>0.818545163868905</v>
+        <v>0.9443479978125836</v>
       </c>
       <c r="E88">
-        <v>0.9443479978125836</v>
+        <v>0.8185407454200885</v>
       </c>
       <c r="F88">
-        <v>0.9706418672501823</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="G88">
-        <v>0.9566236219974924</v>
+        <v>0.9566177161089696</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3529,22 +3535,22 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>0.9813092633114515</v>
+      </c>
+      <c r="C89">
         <v>1.096583187730538</v>
       </c>
-      <c r="C89">
-        <v>0.9924599434495758</v>
-      </c>
       <c r="D89">
-        <v>0.8233413269384493</v>
+        <v>0.9721459919152964</v>
       </c>
       <c r="E89">
-        <v>0.9721459919152964</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="F89">
-        <v>0.9813092633114515</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="G89">
-        <v>0.9731679426690623</v>
+        <v>0.9731656198434799</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3558,22 +3564,22 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>0.9739241429613421</v>
+      </c>
+      <c r="C90">
         <v>1.102407299553485</v>
       </c>
-      <c r="C90">
-        <v>0.9934024505183789</v>
-      </c>
       <c r="D90">
-        <v>0.8401278976818545</v>
+        <v>0.9680804182887734</v>
       </c>
       <c r="E90">
-        <v>0.9680804182887734</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="F90">
-        <v>0.9739241429613421</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="G90">
-        <v>0.9755884418007668</v>
+        <v>0.9755843536998821</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3587,22 +3593,22 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>0.9877826404084609</v>
+      </c>
+      <c r="C91">
         <v>1.102310231023102</v>
       </c>
-      <c r="C91">
-        <v>1.026390197926484</v>
-      </c>
       <c r="D91">
-        <v>0.841726618705036</v>
+        <v>0.9840320744505197</v>
       </c>
       <c r="E91">
-        <v>0.9840320744505197</v>
+        <v>0.8417561591914087</v>
       </c>
       <c r="F91">
-        <v>0.9877826404084609</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="G91">
-        <v>0.9884483525027208</v>
+        <v>0.9884429577396784</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3616,22 +3622,22 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>0.9862326768781912</v>
+      </c>
+      <c r="C92">
         <v>1.0879440885265</v>
       </c>
-      <c r="C92">
-        <v>1.032045240339303</v>
-      </c>
       <c r="D92">
-        <v>0.8433253397282174</v>
+        <v>0.9736231566192596</v>
       </c>
       <c r="E92">
-        <v>0.9736231566192596</v>
+        <v>0.8433354390397979</v>
       </c>
       <c r="F92">
-        <v>0.9862326768781912</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="G92">
-        <v>0.9846341004182941</v>
+        <v>0.9846312262586174</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3645,22 +3651,22 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>0.9772064186725019</v>
+      </c>
+      <c r="C93">
         <v>1.09231217239371</v>
       </c>
-      <c r="C93">
-        <v>1.027332704995288</v>
-      </c>
       <c r="D93">
-        <v>0.8273381294964028</v>
+        <v>0.9772662891192925</v>
       </c>
       <c r="E93">
-        <v>0.9772662891192925</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="F93">
-        <v>0.9772064186725019</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="G93">
-        <v>0.9802911429354391</v>
+        <v>0.9802879384519522</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3674,22 +3680,22 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>0.9857768052516411</v>
+      </c>
+      <c r="C94">
         <v>1.099009900990099</v>
       </c>
-      <c r="C94">
-        <v>1.02827521206409</v>
-      </c>
       <c r="D94">
-        <v>0.8345323741007195</v>
+        <v>0.9756034056951414</v>
       </c>
       <c r="E94">
-        <v>0.9756034056951414</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="F94">
-        <v>0.9857768052516411</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="G94">
-        <v>0.9846395396203385</v>
+        <v>0.9846368422066547</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3703,22 +3709,22 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.016411378555799</v>
+      </c>
+      <c r="C95">
         <v>1.11211415259173</v>
       </c>
-      <c r="C95">
-        <v>1.037700282752121</v>
-      </c>
       <c r="D95">
-        <v>0.8617106314948043</v>
+        <v>0.9845166094686035</v>
       </c>
       <c r="E95">
-        <v>0.9845166094686035</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="F95">
-        <v>1.016411378555799</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="G95">
-        <v>1.002490610972611</v>
+        <v>1.002479181846778</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3732,22 +3738,22 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.00492341356674</v>
+      </c>
+      <c r="C96">
         <v>1.119782566491943</v>
       </c>
-      <c r="C96">
-        <v>1.032045240339303</v>
-      </c>
       <c r="D96">
-        <v>0.8617106314948043</v>
+        <v>0.9717996341020328</v>
       </c>
       <c r="E96">
-        <v>0.9717996341020328</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="F96">
-        <v>1.00492341356674</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="G96">
-        <v>0.9980522971989645</v>
+        <v>0.9980468224665557</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3761,22 +3767,22 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.045404814004376</v>
+      </c>
+      <c r="C97">
         <v>1.124830130071831</v>
       </c>
-      <c r="C97">
-        <v>1.036757775683318</v>
-      </c>
       <c r="D97">
-        <v>0.8689048760991207</v>
+        <v>0.9828638873748538</v>
       </c>
       <c r="E97">
-        <v>0.9828638873748538</v>
+        <v>0.8689197725837019</v>
       </c>
       <c r="F97">
-        <v>1.045404814004376</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="G97">
-        <v>1.0117522966467</v>
+        <v>1.011747480465727</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3790,22 +3796,22 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.035740335521517</v>
+      </c>
+      <c r="C98">
         <v>1.127548048922539</v>
       </c>
-      <c r="C98">
-        <v>1.079170593779453</v>
-      </c>
       <c r="D98">
-        <v>0.8729016786570745</v>
+        <v>0.9931219896706839</v>
       </c>
       <c r="E98">
-        <v>0.9931219896706839</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="F98">
-        <v>1.035740335521517</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="G98">
-        <v>1.021696529310254</v>
+        <v>1.021691134434643</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3819,22 +3825,22 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.060083880379285</v>
+      </c>
+      <c r="C99">
         <v>1.13706076490002</v>
       </c>
-      <c r="C99">
-        <v>1.130065975494816</v>
-      </c>
       <c r="D99">
-        <v>0.8976818545163868</v>
+        <v>1.033262650631168</v>
       </c>
       <c r="E99">
-        <v>1.033262650631168</v>
+        <v>0.8976626658243841</v>
       </c>
       <c r="F99">
-        <v>1.060083880379285</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="G99">
-        <v>1.051631025184335</v>
+        <v>1.051626231946403</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3848,22 +3854,22 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.071298322392414</v>
+      </c>
+      <c r="C100">
         <v>1.144535041739468</v>
       </c>
-      <c r="C100">
-        <v>1.116870876531574</v>
-      </c>
       <c r="D100">
-        <v>0.8928856914468426</v>
+        <v>1.027332289915761</v>
       </c>
       <c r="E100">
-        <v>1.027332289915761</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="F100">
-        <v>1.071298322392414</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="G100">
-        <v>1.050584444405212</v>
+        <v>1.050574075538242</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3877,22 +3883,22 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.059263311451495</v>
+      </c>
+      <c r="C101">
         <v>1.139390409629198</v>
       </c>
-      <c r="C101">
-        <v>1.111215834118756</v>
-      </c>
       <c r="D101">
-        <v>0.8729016786570745</v>
+        <v>1.01089218620151</v>
       </c>
       <c r="E101">
-        <v>1.01089218620151</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="F101">
-        <v>1.059263311451495</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="G101">
-        <v>1.038732684011607</v>
+        <v>1.038734758345752</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3906,22 +3912,22 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.044037199124727</v>
+      </c>
+      <c r="C102">
         <v>1.138419724325374</v>
       </c>
-      <c r="C102">
-        <v>1.106503298774741</v>
-      </c>
       <c r="D102">
-        <v>0.8609112709832135</v>
+        <v>0.9806695466673031</v>
       </c>
       <c r="E102">
-        <v>0.9806695466673031</v>
+        <v>0.8609180880185302</v>
       </c>
       <c r="F102">
-        <v>1.044037199124727</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="G102">
-        <v>1.026108207975072</v>
+        <v>1.026098396698585</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3935,22 +3941,22 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.066010211524435</v>
+      </c>
+      <c r="C103">
         <v>1.135313531353135</v>
       </c>
-      <c r="C103">
-        <v>1.133836003770028</v>
-      </c>
       <c r="D103">
-        <v>0.8705035971223022</v>
+        <v>0.9797585453973902</v>
       </c>
       <c r="E103">
-        <v>0.9797585453973902</v>
+        <v>0.8704990524320909</v>
       </c>
       <c r="F103">
-        <v>1.066010211524435</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="G103">
-        <v>1.037084377833458</v>
+        <v>1.037082664877517</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3964,22 +3970,22 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.088986141502553</v>
+      </c>
+      <c r="C104">
         <v>1.133566297806251</v>
       </c>
-      <c r="C104">
-        <v>1.113100848256362</v>
-      </c>
       <c r="D104">
-        <v>0.8848920863309353</v>
+        <v>0.9755672921580087</v>
       </c>
       <c r="E104">
-        <v>0.9755672921580087</v>
+        <v>0.8849231417140451</v>
       </c>
       <c r="F104">
-        <v>1.088986141502553</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="G104">
-        <v>1.039222533210822</v>
+        <v>1.039220925504689</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -3993,22 +3999,22 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.082786287381473</v>
+      </c>
+      <c r="C105">
         <v>1.128033391574451</v>
       </c>
-      <c r="C105">
-        <v>1.105560791705938</v>
-      </c>
       <c r="D105">
-        <v>0.8952837729816148</v>
+        <v>0.9705915053980027</v>
       </c>
       <c r="E105">
-        <v>0.9705915053980027</v>
+        <v>0.8952937460518005</v>
       </c>
       <c r="F105">
-        <v>1.082786287381473</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="G105">
-        <v>1.036451149808296</v>
+        <v>1.036445022676312</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4022,22 +4028,22 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.096097738876732</v>
+      </c>
+      <c r="C106">
         <v>1.131721995728985</v>
       </c>
-      <c r="C106">
-        <v>1.103675777568332</v>
-      </c>
       <c r="D106">
-        <v>0.9008792965627499</v>
+        <v>0.9788513722187088</v>
       </c>
       <c r="E106">
-        <v>0.9788513722187088</v>
+        <v>0.9008738681827754</v>
       </c>
       <c r="F106">
-        <v>1.096097738876732</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="G106">
-        <v>1.042245236191102</v>
+        <v>1.042242134644143</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4051,22 +4057,22 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.110959153902261</v>
+      </c>
+      <c r="C107">
         <v>1.135216462822753</v>
       </c>
-      <c r="C107">
-        <v>1.141376060320452</v>
-      </c>
       <c r="D107">
-        <v>0.903277378097522</v>
+        <v>1.024708048933364</v>
       </c>
       <c r="E107">
-        <v>1.024708048933364</v>
+        <v>0.903295430616972</v>
       </c>
       <c r="F107">
-        <v>1.110959153902261</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="G107">
-        <v>1.06310742081527</v>
+        <v>1.063098167032779</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4080,22 +4086,22 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.093818380743983</v>
+      </c>
+      <c r="C108">
         <v>1.13230440691128</v>
       </c>
-      <c r="C108">
-        <v>1.152686145146089</v>
-      </c>
       <c r="D108">
-        <v>0.8745003996802558</v>
+        <v>1.046192225799736</v>
       </c>
       <c r="E108">
-        <v>1.046192225799736</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="F108">
-        <v>1.093818380743983</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="G108">
-        <v>1.059900311656269</v>
+        <v>1.059887800821671</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4109,22 +4115,22 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.107768052516412</v>
+      </c>
+      <c r="C109">
         <v>1.123956513298389</v>
       </c>
-      <c r="C109">
-        <v>1.144203581526861</v>
-      </c>
       <c r="D109">
-        <v>0.8760991207034374</v>
+        <v>1.035734865725759</v>
       </c>
       <c r="E109">
-        <v>1.035734865725759</v>
+        <v>0.8760791745630658</v>
       </c>
       <c r="F109">
-        <v>1.107768052516412</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="G109">
-        <v>1.057552426754172</v>
+        <v>1.057538777658878</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4138,22 +4144,22 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.074762946754194</v>
+      </c>
+      <c r="C110">
         <v>1.110852261696758</v>
       </c>
-      <c r="C110">
-        <v>1.076343072573044</v>
-      </c>
       <c r="D110">
-        <v>0.8665067945643485</v>
+        <v>0.9894563952823954</v>
       </c>
       <c r="E110">
-        <v>0.9894563952823954</v>
+        <v>0.8664982101495051</v>
       </c>
       <c r="F110">
-        <v>1.074762946754194</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="G110">
-        <v>1.023584294174148</v>
+        <v>1.023570190754564</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4167,22 +4173,22 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.158096280087527</v>
+      </c>
+      <c r="C111">
         <v>1.11094933022714</v>
       </c>
-      <c r="C111">
-        <v>1.105560791705938</v>
-      </c>
       <c r="D111">
-        <v>0.8745003996802558</v>
+        <v>1.01052108653389</v>
       </c>
       <c r="E111">
-        <v>1.01052108653389</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="F111">
-        <v>1.158096280087527</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="G111">
-        <v>1.05192557764695</v>
+        <v>1.051917354907813</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4196,22 +4202,22 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.167122538293217</v>
+      </c>
+      <c r="C112">
         <v>1.110852261696758</v>
       </c>
-      <c r="C112">
-        <v>1.152686145146089</v>
-      </c>
       <c r="D112">
-        <v>0.8928856914468426</v>
+        <v>1.032809359592988</v>
       </c>
       <c r="E112">
-        <v>1.032809359592988</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="F112">
-        <v>1.167122538293217</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="G112">
-        <v>1.071271199235179</v>
+        <v>1.071256087827849</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4225,22 +4231,22 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.173504741064916</v>
+      </c>
+      <c r="C113">
         <v>1.116676373519705</v>
       </c>
-      <c r="C113">
-        <v>1.157398680490104</v>
-      </c>
       <c r="D113">
-        <v>0.9264588329336531</v>
+        <v>1.065228282028091</v>
       </c>
       <c r="E113">
-        <v>1.065228282028091</v>
+        <v>0.9264582017266794</v>
       </c>
       <c r="F113">
-        <v>1.173504741064916</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="G113">
-        <v>1.087853382007294</v>
+        <v>1.08785030770027</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4254,22 +4260,22 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.171772428884026</v>
+      </c>
+      <c r="C114">
         <v>1.129586488060571</v>
       </c>
-      <c r="C114">
-        <v>1.161168708765316</v>
-      </c>
       <c r="D114">
-        <v>0.9208633093525179</v>
+        <v>1.06823848467936</v>
       </c>
       <c r="E114">
-        <v>1.06823848467936</v>
+        <v>0.9208780795957044</v>
       </c>
       <c r="F114">
-        <v>1.171772428884026</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="G114">
-        <v>1.090325883948358</v>
+        <v>1.090326041412999</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4283,22 +4289,22 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.224653537563822</v>
+      </c>
+      <c r="C115">
         <v>1.145214521452145</v>
       </c>
-      <c r="C115">
-        <v>1.190386427898209</v>
-      </c>
       <c r="D115">
-        <v>0.9200639488409272</v>
+        <v>1.082671176758622</v>
       </c>
       <c r="E115">
-        <v>1.082671176758622</v>
+        <v>0.9200884396715098</v>
       </c>
       <c r="F115">
-        <v>1.224653537563822</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="G115">
-        <v>1.112597922502745</v>
+        <v>1.112591925643711</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4312,22 +4318,22 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.204959883296864</v>
+      </c>
+      <c r="C116">
         <v>1.143952630557173</v>
       </c>
-      <c r="C116">
-        <v>1.175306314797361</v>
-      </c>
       <c r="D116">
-        <v>0.9072741806554757</v>
+        <v>1.117911740204111</v>
       </c>
       <c r="E116">
-        <v>1.117911740204111</v>
+        <v>0.9072962728995578</v>
       </c>
       <c r="F116">
-        <v>1.204959883296864</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="G116">
-        <v>1.109880949902197</v>
+        <v>1.10987386739933</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4341,22 +4347,22 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.219547775346462</v>
+      </c>
+      <c r="C117">
         <v>1.149097262667443</v>
       </c>
-      <c r="C117">
-        <v>1.193213949104618</v>
-      </c>
       <c r="D117">
-        <v>0.9096722621902478</v>
+        <v>1.123907910311425</v>
       </c>
       <c r="E117">
-        <v>1.123907910311425</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="F117">
-        <v>1.219547775346462</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="G117">
-        <v>1.119087831924039</v>
+        <v>1.119078727414429</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4370,28 +4376,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.149097262667443</v>
+        <v>1.239423778264041</v>
       </c>
       <c r="C118">
-        <v>1.193213949104618</v>
+        <v>1.14026402640264</v>
       </c>
       <c r="D118">
-        <v>0.9096722621902478</v>
+        <v>1.138426987772964</v>
       </c>
       <c r="E118">
-        <v>1.138427044068423</v>
+        <v>0.914455674878922</v>
       </c>
       <c r="F118">
-        <v>1.219547775346462</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="G118">
-        <v>1.121991658675439</v>
+        <v>1.130997001295821</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.227024070021882</v>
+      </c>
+      <c r="C119">
+        <v>1.139487478159581</v>
+      </c>
+      <c r="D119">
+        <v>1.169976708316675</v>
+      </c>
+      <c r="E119">
+        <v>0.8952937460518005</v>
+      </c>
+      <c r="F119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="G119">
+        <v>1.13159346547877</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.282913931436907</v>
+      </c>
+      <c r="C120">
+        <v>1.143273150844496</v>
+      </c>
+      <c r="D120">
+        <v>1.184750381992839</v>
+      </c>
+      <c r="E120">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="F120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="G120">
+        <v>1.154691737297574</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.25291757840992</v>
+      </c>
+      <c r="C121">
+        <v>1.139002135507668</v>
+      </c>
+      <c r="D121">
+        <v>1.147442677430058</v>
+      </c>
+      <c r="E121">
+        <v>0.8721309749420931</v>
+      </c>
+      <c r="F121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="G121">
+        <v>1.130552366773433</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.233497447118891</v>
+      </c>
+      <c r="C122">
+        <v>1.131624927198602</v>
+      </c>
+      <c r="D122">
+        <v>1.132532487265123</v>
+      </c>
+      <c r="E122">
+        <v>0.8441250789639924</v>
+      </c>
+      <c r="F122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="G122">
+        <v>1.115472264303919</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.283096280087527</v>
+      </c>
+      <c r="C123">
+        <v>1.133954571927781</v>
+      </c>
+      <c r="D123">
+        <v>1.151187676563671</v>
+      </c>
+      <c r="E123">
+        <v>0.8481259212465783</v>
+      </c>
+      <c r="F123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="G123">
+        <v>1.13605152630065</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.258205689277899</v>
+      </c>
+      <c r="C124">
+        <v>1.133275092215104</v>
+      </c>
+      <c r="D124">
+        <v>1.128655109358996</v>
+      </c>
+      <c r="E124">
+        <v>0.8521267635291641</v>
+      </c>
+      <c r="F124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="G124">
+        <v>1.127231167211771</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.293490153172867</v>
+      </c>
+      <c r="C125">
+        <v>1.13589594253543</v>
+      </c>
+      <c r="D125">
+        <v>1.18879324040154</v>
+      </c>
+      <c r="E125">
+        <v>0.8752895346388714</v>
+      </c>
+      <c r="F125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="G125">
+        <v>1.165232687421671</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.329412837345004</v>
+      </c>
+      <c r="C126">
+        <v>1.118035332945059</v>
+      </c>
+      <c r="D126">
+        <v>1.200642730888226</v>
+      </c>
+      <c r="E126">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="F126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="G126">
+        <v>1.181730510231947</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.310083880379285</v>
+      </c>
+      <c r="C127">
+        <v>1.128907008347894</v>
+      </c>
+      <c r="D127">
+        <v>1.208409224303741</v>
+      </c>
+      <c r="E127">
+        <v>0.9008738681827754</v>
+      </c>
+      <c r="F127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="G127">
+        <v>1.184106177833887</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4503,18 +4770,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4546,213 +4813,195 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>0.2</v>
       </c>
       <c r="J2">
-        <v>6.96</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="K2">
-        <v>0.8100000000000001</v>
+        <v>87.84709930419922</v>
       </c>
       <c r="L2">
-        <v>-2.09</v>
-      </c>
-      <c r="M2">
-        <v>-1.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>59.9349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>141.9</v>
+        <v>0.791100025177002</v>
       </c>
       <c r="K3">
-        <v>9.640000000000001</v>
+        <v>6.714799880981445</v>
       </c>
       <c r="L3">
-        <v>12.41</v>
-      </c>
-      <c r="M3">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-1.3475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>67.98</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K4">
-        <v>3.81</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
-      </c>
-      <c r="M4">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>44.9032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5">
-        <v>48.82</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K5">
-        <v>4.98</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L5">
-        <v>15.45</v>
-      </c>
-      <c r="M5">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>0.2</v>
       </c>
       <c r="J6">
-        <v>81.61</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K6">
-        <v>8.33</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L6">
-        <v>20.06</v>
-      </c>
-      <c r="M6">
-        <v>59.93</v>
+        <v>31.9832</v>
       </c>
     </row>
   </sheetData>
@@ -4770,19 +5019,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4790,19 +5039,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4810,19 +5059,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4830,19 +5079,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4850,19 +5099,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4870,19 +5119,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4890,19 +5139,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4910,19 +5159,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4930,19 +5179,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4950,19 +5199,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4970,19 +5219,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4990,19 +5239,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5010,19 +5259,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5030,19 +5279,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5050,19 +5299,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5070,19 +5319,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5090,19 +5339,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5110,19 +5359,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5130,19 +5379,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5150,19 +5399,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5170,19 +5419,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5192,7 +5441,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5200,87 +5449,98 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
